--- a/dev/example/model/birddata.xlsx
+++ b/dev/example/model/birddata.xlsx
@@ -10,20 +10,26 @@
     <sheet name="packages" sheetId="1" r:id="rId1"/>
     <sheet name="entities" sheetId="2" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
-    <sheet name="birdData_species" sheetId="4" r:id="rId4"/>
-    <sheet name="birdDataRefs_states" sheetId="5" r:id="rId5"/>
+    <sheet name="data_birdData_species" sheetId="4" r:id="rId4"/>
+    <sheet name="data_birdDataRefs_states" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="112">
-  <si>
-    <t>birdData</t>
-  </si>
-  <si>
-    <t>birdDataRefs</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>data_birdData</t>
+  </si>
+  <si>
+    <t>data_birdDataRefs</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
   <si>
     <t>Bird Data</t>
@@ -32,6 +38,9 @@
     <t>Bird Data References</t>
   </si>
   <si>
+    <t>Parent Package Test (v0.0.9000, 2021-09-20)</t>
+  </si>
+  <si>
     <t>Reporting Rates of Australian Birds (v0.91, 2021-09-14)</t>
   </si>
   <si>
@@ -62,10 +71,34 @@
     <t>Australian States and Codes</t>
   </si>
   <si>
-    <t>birdData_species</t>
-  </si>
-  <si>
-    <t>birdDataRefs_states</t>
+    <t>data_birdData_species</t>
+  </si>
+  <si>
+    <t>data_birdDataRefs_states</t>
+  </si>
+  <si>
+    <t>birdID</t>
+  </si>
+  <si>
+    <t>commonName</t>
+  </si>
+  <si>
+    <t>scientificName</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>reportingRate</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>BirdID</t>
@@ -95,30 +128,6 @@
     <t>Percent reported</t>
   </si>
   <si>
-    <t>speciesID</t>
-  </si>
-  <si>
-    <t>commonName</t>
-  </si>
-  <si>
-    <t>scientificName</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>reportingRate</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -140,6 +149,9 @@
     <t>description</t>
   </si>
   <si>
+    <t>parent</t>
+  </si>
+  <si>
     <t>package</t>
   </si>
   <si>
@@ -297,9 +309,6 @@
   </si>
   <si>
     <t>Corvus coronoides</t>
-  </si>
-  <si>
-    <t>birdID</t>
   </si>
   <si>
     <t>AU-ACT</t>
@@ -700,43 +709,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -754,53 +783,53 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -818,57 +847,57 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="b">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -876,25 +905,25 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
       </c>
       <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -902,51 +931,51 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
       </c>
       <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
       <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -954,25 +983,25 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
       </c>
       <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -980,19 +1009,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>30</v>
+      <c r="F7" t="b">
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -1000,19 +1029,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
       </c>
       <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -1020,22 +1049,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
       </c>
       <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -1056,30 +1085,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D2">
         <v>827073</v>
@@ -1090,13 +1119,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D3">
         <v>639974</v>
@@ -1107,13 +1136,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D4">
         <v>583676</v>
@@ -1124,13 +1153,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D5">
         <v>511975</v>
@@ -1141,13 +1170,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>473094</v>
@@ -1158,13 +1187,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>457405</v>
@@ -1175,13 +1204,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>453342</v>
@@ -1192,13 +1221,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D9">
         <v>442306</v>
@@ -1209,13 +1238,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>427747</v>
@@ -1226,13 +1255,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>423237</v>
@@ -1243,13 +1272,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D12">
         <v>417690</v>
@@ -1260,13 +1289,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <v>383926</v>
@@ -1277,13 +1306,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>379833</v>
@@ -1294,13 +1323,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>375735</v>
@@ -1311,13 +1340,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D16">
         <v>357750</v>
@@ -1341,101 +1370,101 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/dev/example/model/birddata.xlsx
+++ b/dev/example/model/birddata.xlsx
@@ -10,43 +10,25 @@
     <sheet name="packages" sheetId="1" r:id="rId1"/>
     <sheet name="entities" sheetId="2" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
-    <sheet name="data_birdData_species" sheetId="4" r:id="rId4"/>
-    <sheet name="data_birdDataRefs_states" sheetId="5" r:id="rId5"/>
+    <sheet name="data_species" sheetId="4" r:id="rId4"/>
+    <sheet name="data_states" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>data_birdData</t>
-  </si>
-  <si>
-    <t>data_birdDataRefs</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
-    <t>Bird Data</t>
-  </si>
-  <si>
-    <t>Bird Data References</t>
-  </si>
-  <si>
     <t>Parent Package Test (v0.0.9000, 2021-09-20)</t>
   </si>
   <si>
-    <t>Reporting Rates of Australian Birds (v0.91, 2021-09-14)</t>
-  </si>
-  <si>
-    <t>Reference Tables for birdData (v0.9, 2021-09-14)</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -71,10 +53,10 @@
     <t>Australian States and Codes</t>
   </si>
   <si>
-    <t>data_birdData_species</t>
-  </si>
-  <si>
-    <t>data_birdDataRefs_states</t>
+    <t>data_species</t>
+  </si>
+  <si>
+    <t>data_states</t>
   </si>
   <si>
     <t>birdID</t>
@@ -147,9 +129,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>parent</t>
   </si>
   <si>
     <t>package</t>
@@ -709,63 +688,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -783,53 +731,53 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -847,48 +795,48 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -897,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -905,16 +853,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -923,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -931,16 +879,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -949,24 +897,24 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -975,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -983,16 +931,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1001,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -1009,10 +957,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1021,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -1029,10 +977,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1041,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -1049,10 +997,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1061,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -1085,30 +1033,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D2">
         <v>827073</v>
@@ -1119,13 +1067,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>639974</v>
@@ -1136,13 +1084,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>583676</v>
@@ -1153,13 +1101,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D5">
         <v>511975</v>
@@ -1170,13 +1118,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>473094</v>
@@ -1187,13 +1135,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>457405</v>
@@ -1204,13 +1152,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D8">
         <v>453342</v>
@@ -1221,13 +1169,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <v>442306</v>
@@ -1238,13 +1186,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <v>427747</v>
@@ -1255,13 +1203,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>423237</v>
@@ -1272,13 +1220,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <v>417690</v>
@@ -1289,13 +1237,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <v>383926</v>
@@ -1306,13 +1254,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D14">
         <v>379833</v>
@@ -1323,13 +1271,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D15">
         <v>375735</v>
@@ -1340,13 +1288,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D16">
         <v>357750</v>
@@ -1370,101 +1318,101 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
         <v>106</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/dev/example/model/birddata.xlsx
+++ b/dev/example/model/birddata.xlsx
@@ -10,53 +10,72 @@
     <sheet name="packages" sheetId="1" r:id="rId1"/>
     <sheet name="entities" sheetId="2" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
-    <sheet name="data_species" sheetId="4" r:id="rId4"/>
-    <sheet name="data_states" sheetId="5" r:id="rId5"/>
+    <sheet name="tags" sheetId="4" r:id="rId4"/>
+    <sheet name="birdData_states" sheetId="5" r:id="rId5"/>
+    <sheet name="birdData_species" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Parent Package Test (v0.0.9000, 2021-09-20)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
+  <si>
+    <t>birdData</t>
+  </si>
+  <si>
+    <t>Bird Data References</t>
+  </si>
+  <si>
+    <t>Reference Tables for birdData (v1.0.0, 2021-10-15)</t>
+  </si>
+  <si>
+    <t>dcat:catalog</t>
+  </si>
+  <si>
+    <t>states</t>
   </si>
   <si>
     <t>species</t>
   </si>
   <si>
-    <t>states</t>
+    <t>Australian States</t>
   </si>
   <si>
     <t>Species</t>
   </si>
   <si>
-    <t>Australian States</t>
+    <t>Australische Staten</t>
   </si>
   <si>
     <t>Soorten</t>
   </si>
   <si>
-    <t>Australische Staten</t>
+    <t>Australian States and Territories</t>
   </si>
   <si>
     <t>Reporting Counts and Rates by Species</t>
   </si>
   <si>
-    <t>Australian States and Codes</t>
-  </si>
-  <si>
-    <t>data_species</t>
-  </si>
-  <si>
-    <t>data_states</t>
+    <t>ISO:3166,dcat:dataset</t>
+  </si>
+  <si>
+    <t>dcat:dataset</t>
+  </si>
+  <si>
+    <t>birdData_states</t>
+  </si>
+  <si>
+    <t>birdData_species</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>birdID</t>
@@ -74,15 +93,6 @@
     <t>reportingRate</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>BirdID</t>
   </si>
   <si>
@@ -98,6 +108,15 @@
     <t>Reporting Rate</t>
   </si>
   <si>
+    <t>state code</t>
+  </si>
+  <si>
+    <t>state type (state or territory)</t>
+  </si>
+  <si>
+    <t>state name</t>
+  </si>
+  <si>
     <t>Species Identifier</t>
   </si>
   <si>
@@ -119,18 +138,21 @@
     <t>decimal</t>
   </si>
   <si>
+    <t>naam</t>
+  </si>
+  <si>
     <t>Wetenschappelijke naam</t>
   </si>
   <si>
-    <t>naam</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
+    <t>tags</t>
+  </si>
+  <si>
     <t>package</t>
   </si>
   <si>
@@ -143,16 +165,112 @@
     <t>idAttribute</t>
   </si>
   <si>
+    <t>dataType</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
     <t>nillable</t>
   </si>
   <si>
-    <t>dataType</t>
-  </si>
-  <si>
-    <t>lookupAttribute</t>
-  </si>
-  <si>
-    <t>auto</t>
+    <t>ISO:3166</t>
+  </si>
+  <si>
+    <t>dcat:Catalog</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/vocab-dcat-3/#Class:Catalog</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/vocab-dcat-3/#Property:catalog_dataset</t>
+  </si>
+  <si>
+    <t>https://www.iso.org/obp/#iso:code:3166:AU</t>
+  </si>
+  <si>
+    <t>dcat</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>isAssociatedWith</t>
+  </si>
+  <si>
+    <t>http://molgenis.org#isAssociatedWith</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>objectIRI</t>
+  </si>
+  <si>
+    <t>codeSystem</t>
+  </si>
+  <si>
+    <t>relationLabel</t>
+  </si>
+  <si>
+    <t>relationIRI</t>
+  </si>
+  <si>
+    <t>AU-ACT</t>
+  </si>
+  <si>
+    <t>AU-NSW</t>
+  </si>
+  <si>
+    <t>AU-NT</t>
+  </si>
+  <si>
+    <t>AU-QLD</t>
+  </si>
+  <si>
+    <t>AU-SA</t>
+  </si>
+  <si>
+    <t>AU-TAS</t>
+  </si>
+  <si>
+    <t>AU-VIC</t>
+  </si>
+  <si>
+    <t>AU-WA</t>
+  </si>
+  <si>
+    <t>territory</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Australian Capital Territory</t>
+  </si>
+  <si>
+    <t>New South Wales</t>
+  </si>
+  <si>
+    <t>Northern Territory</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>South Australia</t>
+  </si>
+  <si>
+    <t>Tasmania</t>
+  </si>
+  <si>
+    <t>Victori</t>
+  </si>
+  <si>
+    <t>Western Australia</t>
   </si>
   <si>
     <t>b1</t>
@@ -288,67 +406,13 @@
   </si>
   <si>
     <t>Corvus coronoides</t>
-  </si>
-  <si>
-    <t>AU-ACT</t>
-  </si>
-  <si>
-    <t>AU-NSW</t>
-  </si>
-  <si>
-    <t>AU-NT</t>
-  </si>
-  <si>
-    <t>AU-QLD</t>
-  </si>
-  <si>
-    <t>AU-SA</t>
-  </si>
-  <si>
-    <t>AU-TAS</t>
-  </si>
-  <si>
-    <t>AU-VIC</t>
-  </si>
-  <si>
-    <t>AU-WA</t>
-  </si>
-  <si>
-    <t>territory</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>Australian Capital Territory</t>
-  </si>
-  <si>
-    <t>New South Wales</t>
-  </si>
-  <si>
-    <t>Northern Territory</t>
-  </si>
-  <si>
-    <t>Queensland</t>
-  </si>
-  <si>
-    <t>South Australia</t>
-  </si>
-  <si>
-    <t>Tasmania</t>
-  </si>
-  <si>
-    <t>Victori</t>
-  </si>
-  <si>
-    <t>Western Australia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +426,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,14 +459,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -688,24 +765,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -714,6 +794,9 @@
       </c>
       <c r="C2" t="s">
         <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -723,61 +806,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -787,235 +879,250 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
       <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>31</v>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="b">
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
       </c>
       <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" t="b">
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
         <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1025,285 +1132,101 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2">
-        <v>827073</v>
-      </c>
-      <c r="E2">
-        <v>35.83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3">
-        <v>639974</v>
-      </c>
-      <c r="E3">
-        <v>27.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4">
-        <v>583676</v>
-      </c>
-      <c r="E4">
-        <v>25.28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5">
-        <v>511975</v>
-      </c>
-      <c r="E5">
-        <v>22.18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6">
-        <v>473094</v>
-      </c>
-      <c r="E6">
-        <v>20.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7">
-        <v>457405</v>
-      </c>
-      <c r="E7">
-        <v>19.81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8">
-        <v>453342</v>
-      </c>
-      <c r="E8">
-        <v>19.64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9">
-        <v>442306</v>
-      </c>
-      <c r="E9">
-        <v>19.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10">
-        <v>427747</v>
-      </c>
-      <c r="E10">
-        <v>18.53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11">
-        <v>423237</v>
-      </c>
-      <c r="E11">
-        <v>18.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12">
-        <v>417690</v>
-      </c>
-      <c r="E12">
-        <v>18.09</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13">
-        <v>383926</v>
-      </c>
-      <c r="E13">
-        <v>16.63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14">
-        <v>379833</v>
-      </c>
-      <c r="E14">
-        <v>16.45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="D4" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15">
-        <v>375735</v>
-      </c>
-      <c r="E15">
-        <v>16.28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="E4" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16">
-        <v>357750</v>
-      </c>
-      <c r="E16">
-        <v>15.5</v>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" location="Class:Catalog"/>
+    <hyperlink ref="F2" r:id="rId2" location="isAssociatedWith"/>
+    <hyperlink ref="C3" r:id="rId3" location="Property:catalog_dataset"/>
+    <hyperlink ref="F3" r:id="rId4" location="isAssociatedWith"/>
+    <hyperlink ref="C4" r:id="rId5" location="iso:code:3166:AU"/>
+    <hyperlink ref="F4" r:id="rId6" location="isAssociatedWith"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1318,101 +1241,386 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2">
+        <v>827073</v>
+      </c>
+      <c r="E2">
+        <v>35.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3">
+        <v>639974</v>
+      </c>
+      <c r="E3">
+        <v>27.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4">
+        <v>583676</v>
+      </c>
+      <c r="E4">
+        <v>25.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5">
+        <v>511975</v>
+      </c>
+      <c r="E5">
+        <v>22.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6">
+        <v>473094</v>
+      </c>
+      <c r="E6">
+        <v>20.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7">
+        <v>457405</v>
+      </c>
+      <c r="E7">
+        <v>19.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>453342</v>
+      </c>
+      <c r="E8">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9">
+        <v>442306</v>
+      </c>
+      <c r="E9">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
+        <v>427747</v>
+      </c>
+      <c r="E10">
+        <v>18.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11">
+        <v>423237</v>
+      </c>
+      <c r="E11">
+        <v>18.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12">
+        <v>417690</v>
+      </c>
+      <c r="E12">
+        <v>18.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13">
+        <v>383926</v>
+      </c>
+      <c r="E13">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14">
+        <v>379833</v>
+      </c>
+      <c r="E14">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>97</v>
       </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15">
+        <v>375735</v>
+      </c>
+      <c r="E15">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16">
+        <v>357750</v>
+      </c>
+      <c r="E16">
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>

--- a/dev/example/model/birddata.xlsx
+++ b/dev/example/model/birddata.xlsx
@@ -19,26 +19,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="146">
   <si>
     <t>birdData</t>
   </si>
   <si>
-    <t>Bird Data References</t>
-  </si>
-  <si>
-    <t>Reference Tables for birdData (v1.0.0, 2021-10-15)</t>
+    <t>Bird Data</t>
+  </si>
+  <si>
+    <t>Reporting Rates of Australian Bird Species (v1.0.0, 2021-11-12)</t>
   </si>
   <si>
     <t>dcat:catalog</t>
   </si>
   <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>wings</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>conservationStatus</t>
+  </si>
+  <si>
     <t>states</t>
   </si>
   <si>
     <t>species</t>
   </si>
   <si>
+    <t>lookup table attribute template</t>
+  </si>
+  <si>
+    <t>reference for wing characteristics</t>
+  </si>
+  <si>
+    <t>reference for colors and patterns</t>
+  </si>
+  <si>
+    <t>reference for conservation status</t>
+  </si>
+  <si>
+    <t>Australian States and Territories</t>
+  </si>
+  <si>
+    <t>Reporting Counts and Rates by Species</t>
+  </si>
+  <si>
+    <t>birdData_template</t>
+  </si>
+  <si>
     <t>Australian States</t>
   </si>
   <si>
@@ -51,12 +84,6 @@
     <t>Soorten</t>
   </si>
   <si>
-    <t>Australian States and Territories</t>
-  </si>
-  <si>
-    <t>Reporting Counts and Rates by Species</t>
-  </si>
-  <si>
     <t>ISO:3166,dcat:dataset</t>
   </si>
   <si>
@@ -69,9 +96,21 @@
     <t>birdData_species</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>codesystem</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
+    <t>iri</t>
+  </si>
+  <si>
     <t>category</t>
   </si>
   <si>
@@ -93,6 +132,18 @@
     <t>reportingRate</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>hyperlink</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
     <t>BirdID</t>
   </si>
   <si>
@@ -129,15 +180,6 @@
     <t>Percent reported</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
     <t>naam</t>
   </si>
   <si>
@@ -147,15 +189,18 @@
     <t>label</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>tags</t>
   </si>
   <si>
     <t>package</t>
   </si>
   <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>extends</t>
+  </si>
+  <si>
     <t>label-nl</t>
   </si>
   <si>
@@ -168,10 +213,16 @@
     <t>dataType</t>
   </si>
   <si>
+    <t>nillable</t>
+  </si>
+  <si>
+    <t>lookupAttribute</t>
+  </si>
+  <si>
+    <t>labelAttribute</t>
+  </si>
+  <si>
     <t>auto</t>
-  </si>
-  <si>
-    <t>nillable</t>
   </si>
   <si>
     <t>ISO:3166</t>
@@ -773,16 +824,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -806,33 +857,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -840,19 +897,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -860,16 +911,78 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -879,250 +992,362 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="b">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1140,22 +1365,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1163,59 +1388,59 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1241,101 +1466,101 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1353,30 +1578,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D2">
         <v>827073</v>
@@ -1387,13 +1612,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D3">
         <v>639974</v>
@@ -1404,13 +1629,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="D4">
         <v>583676</v>
@@ -1421,13 +1646,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D5">
         <v>511975</v>
@@ -1438,13 +1663,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D6">
         <v>473094</v>
@@ -1455,13 +1680,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D7">
         <v>457405</v>
@@ -1472,13 +1697,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D8">
         <v>453342</v>
@@ -1489,13 +1714,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D9">
         <v>442306</v>
@@ -1506,13 +1731,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>427747</v>
@@ -1523,13 +1748,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D11">
         <v>423237</v>
@@ -1540,13 +1765,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D12">
         <v>417690</v>
@@ -1557,13 +1782,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D13">
         <v>383926</v>
@@ -1574,13 +1799,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D14">
         <v>379833</v>
@@ -1591,13 +1816,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D15">
         <v>375735</v>
@@ -1608,13 +1833,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D16">
         <v>357750</v>
